--- a/testCase/sqszyyadmin/PayRecordManage.xlsx
+++ b/testCase/sqszyyadmin/PayRecordManage.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="downloadPayRecords" sheetId="1" r:id="rId1"/>
+    <sheet name="searchPatientName" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>caseName</t>
   </si>
@@ -47,6 +48,25 @@
   <si>
     <t>宿迁市中医院缴费信息.xls</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费记录管理-通过就诊人查询</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_order</t>
+  </si>
+  <si>
+    <t>conditionKey</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>patient_name</t>
   </si>
 </sst>
 </file>
@@ -987,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1046,4 +1066,62 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>